--- a/guide list.xlsx
+++ b/guide list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git workspace\guidebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A203150-BEF6-44C4-B113-A0AA9E29A030}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4515AA-0E5D-456B-B712-FAE63228A94B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14120" windowHeight="12630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1036,7 +1036,7 @@
   <dimension ref="B2:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/guide list.xlsx
+++ b/guide list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git workspace\guidebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4515AA-0E5D-456B-B712-FAE63228A94B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BF0EAB-8C5B-4F43-AFA4-E1250753B0DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14120" windowHeight="12630" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87A77D3F-A323-47C7-81AD-55F6BC9B18E2}">
   <dimension ref="B2:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
